--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509160.0952751979</v>
+        <v>-511797.0508927213</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.4084368636476</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>147.4401550579538</v>
       </c>
       <c r="G2" t="n">
-        <v>356.0046096416568</v>
+        <v>85.45486307402638</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>93.8271069948149</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>34.32672499662223</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>267.7132903626184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>33.70911883602705</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.00028367183035</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,10 +1111,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.7520052595916</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>212.3835204244344</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.1002141637111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.2975901400245</v>
+        <v>44.44938732291692</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.23631843387907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>247.1247026609873</v>
+        <v>258.4213586456705</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.84316668127778</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>100.5140508960355</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>225.9908369016792</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>141.9101287729429</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>10.63412424768206</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.77126028643559</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>146.939375611337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881283</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>269.098718430618</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.7812597870353</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.8796921214428</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>784.9973385935632</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="C2" t="n">
-        <v>784.9973385935632</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="D2" t="n">
-        <v>784.9973385935632</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8474023676565</v>
+        <v>656.9270727971507</v>
       </c>
       <c r="F2" t="n">
-        <v>410.8474023676565</v>
+        <v>507.997623243662</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657685</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657685</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>769.5800553833139</v>
+        <v>1444.105910816297</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>1275.16972788839</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>1125.053088476055</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1541.671264524179</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1541.671264524179</v>
+        <v>2425.08246232319</v>
       </c>
       <c r="T4" t="n">
-        <v>1541.671264524179</v>
+        <v>2425.08246232319</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.671264524179</v>
+        <v>2135.964124827027</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.986776318292</v>
+        <v>2135.964124827027</v>
       </c>
       <c r="W4" t="n">
-        <v>997.5696062813313</v>
+        <v>1846.546954790067</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5800553833139</v>
+        <v>1846.546954790067</v>
       </c>
       <c r="Y4" t="n">
-        <v>769.5800553833139</v>
+        <v>1625.754375646537</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.368453810658</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1364.148958381564</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810658</v>
+        <v>1733.111475321975</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1558.668055759517</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1362.039307919378</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1139.060827114113</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>849.9424896179511</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>595.2580014120642</v>
+        <v>792.054313852967</v>
       </c>
       <c r="W7" t="n">
-        <v>305.8408313751036</v>
+        <v>792.054313852967</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8408313751036</v>
+        <v>792.054313852967</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>792.054313852967</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1133.6422471156</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>747.8539945173554</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="Y8" t="n">
-        <v>2008.591232902438</v>
+        <v>1878.507785786472</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100997</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541374</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X10" t="n">
-        <v>829.9210616433568</v>
+        <v>930.7936001653288</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.9210616433568</v>
+        <v>710.0010210217987</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773688</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1910.695003076829</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>1656.010514870942</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1366.593344833982</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>1138.603793935964</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433587</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>268.7034100454483</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>186.6449060441816</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2298.539471851637</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2009.464245195835</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6649,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,19 +6941,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>1063.573343591573</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>894.6371606636665</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>744.5205212513307</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>596.6074276689376</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>449.7174801710272</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,43 +7634,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,22 +7822,22 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013354</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>240.4465442417436</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>294.834493518473</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>162.0073097921339</v>
+        <v>138.939397511105</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.52193320861412</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>326.0928396989276</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.05977172825686</v>
+        <v>27.76311574357368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>186.0089474405555</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>60.1936374875649</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.79952661609423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>129.6605885985418</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>144.6341900408527</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>70.46607471595129</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>17.42427990597304</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>34.74287850523351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202385186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.575205892</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26326,7 +26326,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
@@ -26335,7 +26335,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363178</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66766.26289939582</v>
+        <v>66766.26289939572</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,19 +26430,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="H4" t="n">
-        <v>7507.368461719677</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719685</v>
-      </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719683</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26451,13 +26451,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1045396.175139261</v>
+        <v>-1045686.782304108</v>
       </c>
       <c r="C6" t="n">
-        <v>40786.93921930293</v>
+        <v>40786.93921930311</v>
       </c>
       <c r="D6" t="n">
-        <v>40786.93921930299</v>
+        <v>40786.93921930283</v>
       </c>
       <c r="E6" t="n">
-        <v>-353792.6950109208</v>
+        <v>-353827.4329363561</v>
       </c>
       <c r="F6" t="n">
-        <v>153692.7466136251</v>
+        <v>153658.0086881894</v>
       </c>
       <c r="G6" t="n">
-        <v>153692.7466136252</v>
+        <v>153658.0086881894</v>
       </c>
       <c r="H6" t="n">
-        <v>153692.7466136253</v>
+        <v>153658.0086881895</v>
       </c>
       <c r="I6" t="n">
-        <v>153692.7466136252</v>
+        <v>153658.0086881895</v>
       </c>
       <c r="J6" t="n">
-        <v>-13912.43119635728</v>
+        <v>-13947.16912179311</v>
       </c>
       <c r="K6" t="n">
-        <v>153692.7466136252</v>
+        <v>153658.0086881895</v>
       </c>
       <c r="L6" t="n">
-        <v>153692.7466136252</v>
+        <v>153658.0086881895</v>
       </c>
       <c r="M6" t="n">
-        <v>21085.45288469849</v>
+        <v>21050.71495926297</v>
       </c>
       <c r="N6" t="n">
         <v>128748.5136335321</v>
@@ -26561,7 +26561,7 @@
         <v>148176.2316271637</v>
       </c>
       <c r="P6" t="n">
-        <v>148176.2316271637</v>
+        <v>148176.2316271638</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>259.4358906837576</v>
       </c>
       <c r="G2" t="n">
-        <v>55.54309313129716</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.730465424758734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>160.3357353651152</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>97.55960140838914</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>320.9739227846559</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.55728874774329</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.3856380642364</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>194.4925253172771</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.1377244923425</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.53439004191284</v>
+        <v>135.3825928590204</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>365.7939385020181</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.83623123219</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>630.259175514596</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>497.4319917882568</v>
+        <v>474.3640795072282</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
